--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W3.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W3.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Không push được lên github và chuyển nhánh</t>
+  </si>
+  <si>
+    <t>Lỗi đăng ký không gửi đc email</t>
+  </si>
+  <si>
+    <t>Đang tìm cách</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1209,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E28" sqref="A28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,6 +1501,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44710</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
@@ -1593,7 +1613,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C22:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C22:C28">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W3.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="1260" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="1716" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="W2" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>Mọi người trong nhóm đang hỗ trợ</t>
+  </si>
+  <si>
+    <t>Quy tắc làm việc nhóm:
++, Tất cả mọi người phải code trung bình mỗi tuần phải code được 1 màn hình/1 người
++, Teach leader kiểm tra mọi người tạo ra cấu trúc thư mục theo hướng dẫn của thầy
++, Một ngày các thành viên dành ra 2h để code và 15-30m để làm tài liệu và 10-15m để họp nhóm
++, Cả nhóm phấn đấu code 40-45 screen, 20-25 database table. Nguyên tắc để làm đi từ gốc của Mindmap và tên đề tài -&gt; Tên nhóm chức năng(FeatureName) -&gt; ScreenName -&gt; SceenFlow -&gt; Vẽ Mockup màn hình -&gt; Vẽ Data table diagram -&gt; Vẽ packege diagram
+Thực chất chỗ này là định hình tên của object class sẽ được sắp xếp vào các folder của project. Detail Design mô tả cấu trúc bên trong của class và mối quan hệ giữa các class = cách sử dugnj Class Diagram. Mô tả giữa các class gọi nhau như thế nào thông qua Sequece Diagram
++, Hằng ngày record meeting phải viết lại issue mà nhó m gặp phải  (3-5 issue) và các solution</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,6 +552,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1258,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,12 +1288,12 @@
     <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1294,12 +1309,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1312,8 +1327,16 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1324,8 +1347,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1336,21 +1365,47 @@
         <v>25</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1363,8 +1418,14 @@
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1377,8 +1438,14 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1391,8 +1458,14 @@
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1405,8 +1478,14 @@
       <c r="D14" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1419,8 +1498,14 @@
       <c r="D15" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1433,8 +1518,14 @@
       <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1461,8 +1558,14 @@
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1475,22 +1578,46 @@
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1503,8 +1630,14 @@
       <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>44711</v>
       </c>
@@ -1517,8 +1650,14 @@
       <c r="D24" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>44711</v>
       </c>
@@ -1531,8 +1670,14 @@
       <c r="D25" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>44713</v>
       </c>
@@ -1545,8 +1690,14 @@
       <c r="D26" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>44715</v>
       </c>
@@ -1560,7 +1711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>44716</v>
       </c>
@@ -1574,7 +1725,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>44716</v>
       </c>
@@ -1588,18 +1739,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -1691,6 +1842,9 @@
       <c r="D43" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:J26"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30">
       <formula1>"Pending, In Progress, Completed"</formula1>
